--- a/options.xlsx
+++ b/options.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\Tipificador Mejor\36 - Primigenio - Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\Movil-main(3)\Movil-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC996293-871A-4904-8DB7-80EBF49ED1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959EF7F4-6E24-49B9-8FF9-385A6CC94F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,12 +105,6 @@
     <t>Ingresa la comuna</t>
   </si>
   <si>
-    <t>Arica; Camarones; Putre; General Lagos; Iquique; Camiña; Colchane; Huara; Pica; Pozo Almonte; Alto Hospicio; Antofagasta; Mejillones; Sierra Gorda; Taltal; Calama; Ollagüe; San Pedro de Atacama; Tocopilla; María Elena; Copiapó; Caldera; Tierra Amarilla; Chañaral; Diego de Almagro; Vallenar; Alto del Carmen; Freirina; Huasco; La Serena; Coquimbo; Andacollo; La Higuera; Paiguano; Vicuña; Illapel; Canela; Los Vilos; Salamanca; Ovalle; Combarbalá; Monte Patria; Punitaqui; Río Hurtado; Valparaíso; Casablanca; Concón; Juan Fernández; Puchuncaví; Quilpué; Quintero; Villa Alemana; Viña del Mar; Isla de Pascua; Los Andes; Calle Larga; Rinconada; San Esteban; La Ligua; Cabildo; Papudo; Petorca; Zapallar; Quillota; Calera; Hijuelas; La Cruz; Limache; Nogales; Olmué; San Antonio; Algarrobo; Cartagena; El Quisco; El Tabo; Santo Domingo; San Felipe; Catemu; Llaillay; Panquehue; Putaendo; Santa María; Rancagua; Codegua; Coinco; Coltauco; Doñihue; Graneros; Las Cabras; Machalí; Malloa; Mostazal; Olivar; Peumo; Pichidegua; Quinta de Tilcoco; Rengo; Requínoa; San Vicente; Pichilemu; La Estrella; Litueche; Marchihue; Navidad; Paredones; San Fernando; Chépica; Chimbarongo; Lolol; Nancagua; Palmilla; Peralillo; Placilla; Pumanque; Santa Cruz; Talca; Constitución; Curepto; Empedrado; Maule; Pelarco; Pencahue; Río Claro; San Clemente; San Rafael; Cauquenes; Chanco; Pelluhue; Curicó; Hualañé; Licantén; Molina; Rauco; Romeral; Sagrada Familia; Teno; Vichuquén; Linares; Colbún; Longaví; Parral; Retiro; San Javier; Villa Alegre; Yerbas Buenas; Concepción; Coronel; Chiguayante; Florida; Hualqui; Lota; Penco; San Pedro de la Paz; Santa Juana; Talcahuano; Tomé; Hualpén; Lebu; Arauco; Cañete; Contulmo; Curanilahue; Los Álamos; Tirúa; Los Ángeles; Antuco; Cabrero; Laja; Mulchén; Nacimiento; Negrete; Quilaco; Quilleco; San Rosendo; Santa Bárbara; Tucapel; Yumbel; Alto Biobío; Chillán; Bulnes; Cobquecura; Coelemu; Coihueco; Chillán Viejo; El Carmen; Ninhue; Ñiquén; Pemuco; Pinto; Portezuelo; Quillón; Quirihue; Ránquil; San Carlos; San Fabián; San Ignacio; San Nicolás; Treguaco; Yungay; Temuco; Carahue; Cunco; Curarrehue; Freire; Galvarino; Gorbea; Lautaro; Loncoche; Melipeuco; Nueva Imperial; Padre Las Casas; Perquenco; Pitrufquén; Pucón; Saavedra; Teodoro Schmidt; Toltén; Vilcún; Villarrica; Cholchol; Angol; Collipulli; Curacautín; Ercilla; Lonquimay; Los Sauces; Lumaco; Purén; Renaico; Traiguén; Victoria; Valdivia; Corral; Futrono; La Unión; Lago Ranco; Lanco; Los Lagos; Máfil; Mariquina; Paillaco; Panguipulli; Río Bueno; Puerto Montt; Calbuco; Cochamó; Fresia; Frutillar; Los Muermos; Llanquihue; Maullín; Puerto Varas; Castro; Ancud; Chonchi; Curaco de Vélez; Dalcahue; Puqueldón; Queilén; Quellón; Quemchi; Quinchao; Osorno; Puerto Octay; Purranque; Puyehue; Río Negro; San Juan de la Costa; San Pablo; Chaitén; Futaleufú; Hualaihué; Palena; Coihaique; Lago Verde; Aisén; Cisnes; Guaitecas; Cochrane; O'Higgins; Tortel; Chile Chico; Río Ibáñez; Punta Arenas; Laguna Blanca; Río Verde; San Gregorio; Cabo de Hornos; Antártica; Porvenir; Primavera; Timaukel; Natales; Torres del Paine; Santiago; Cerrillos; Cerro Navia; Conchalí; El Bosque; Estación Central; Huechuraba; Independencia; La Cisterna; La Florida; La Granja; La Pintana; La Reina; Las Condes; Lo Barnechea; Lo Espejo; Lo Prado; Macul; Maipú; Ñuñoa; Pedro Aguirre Cerda; Peñalolén; Providencia; Pudahuel; Quilicura; Quinta Normal; Recoleta; Renca; San Joaquín; San Miguel; San Ramón; Vitacura; Puente Alto; Pirque; San José de Maipo; Colina; Lampa; Tiltil; San Bernardo; Buin; Calera de Tango; Paine; Melipilla; Alhué; Curacaví; María Pinto; San Pedro; Talagante; El Monte; Isla de Maipo; Padre Hurtado; Peñaflor; Ignorada</t>
-  </si>
-  <si>
-    <t>Arica y Parinacota; Tarapacá; Antofagasta; Atacama; Coquimbo; Valparaíso; Metropolitana de Santiago; O’Higgins; Maule; Ñuble; Biobío; La Araucanía; Los Ríos; Los Lagos; Aysén; Magallanes y de la Antártica Chilena</t>
-  </si>
-  <si>
     <t>Imsi inicial</t>
   </si>
   <si>
@@ -265,6 +259,12 @@
   </si>
   <si>
     <t>desactivado</t>
+  </si>
+  <si>
+    <t>Arica; Camarones; Putre; General Lagos; Iquique; Camiña; Colchane; Huara; Pica; Pozo Almonte; Alto Hospicio; Antofagasta; Mejillones; Sierra Gorda; Taltal; Calama; Ollagüe; San Pedro de Atacama; Tocopilla; María Elena; Copiapó; Caldera; Tierra Amarilla; Chañaral; Diego de Almagro; Vallenar; Alto del Carmen; Freirina; Huasco; La Serena; Coquimbo; Andacollo; La Higuera; Paiguano; Vicuña; Illapel; Canela; Los Vilos; Salamanca; Ovalle; Combarbalá; Monte Patria; Punitaqui; Río Hurtado; Valparaíso; Casablanca; Concón; Juan Fernández; Puchuncaví; Quilpué; Quintero; Villa Alemana; Viña del Mar; Isla de Pascua; Los Andes; Calle Larga; Rinconada; San Esteban; La Ligua; Cabildo; Papudo; Petorca; Zapallar; Quillota; Calera; Hijuelas; La Cruz; Limache; Nogales; Olmué; San Antonio; Algarrobo; Cartagena; El Quisco; El Tabo; Santo Domingo; San Felipe; Catemu; Llaillay; Panquehue; Putaendo; Santa María; Rancagua; Codegua; Coinco; Coltauco; Doñihue; Graneros; Las Cabras; Machalí; Malloa; Mostazal; Olivar; Peumo; Pichidegua; Quinta de Tilcoco; Rengo; Requínoa; San Vicente; Pichilemu; La Estrella; Litueche; Marchihue; Navidad; Paredones; San Fernando; Chépica; Chimbarongo; Lolol; Nancagua; Palmilla; Peralillo; Placilla; Pumanque; Santa Cruz; Talca; Constitución; Curepto; Empedrado; Maule; Pelarco; Pencahue; Río Claro; San Clemente; San Rafael; Cauquenes; Chanco; Pelluhue; Curicó; Hualañé; Licantén; Molina; Rauco; Romeral; Sagrada Familia; Teno; Vichuquén; Linares; Colbún; Longaví; Parral; Retiro; San Javier; Villa Alegre; Yerbas Buenas; Concepción; Coronel; Chiguayante; Florida; Hualqui; Lota; Penco; San Pedro de la Paz; Santa Juana; Talcahuano; Tomé; Hualpén; Lebu; Arauco; Cañete; Contulmo; Curanilahue; Los Álamos; Tirúa; Los Ángeles; Antuco; Cabrero; Laja; Mulchén; Nacimiento; Negrete; Quilaco; Quilleco; San Rosendo; Santa Bárbara; Tucapel; Yumbel; Alto Biobío; Chillán; Bulnes; Cobquecura; Coelemu; Coihueco; Chillán Viejo; El Carmen; Ninhue; Ñiquén; Pemuco; Pinto; Portezuelo; Quillón; Quirihue; Ránquil; San Carlos; San Fabián; San Ignacio; San Nicolás; Treguaco; Yungay; Temuco; Carahue; Cunco; Curarrehue; Freire; Galvarino; Gorbea; Lautaro; Loncoche; Melipeuco; Nueva Imperial; Padre Las Casas; Perquenco; Pitrufquén; Pucón; Saavedra; Teodoro Schmidt; Toltén; Vilcún; Villarrica; Cholchol; Angol; Collipulli; Curacautín; Ercilla; Lonquimay; Los Sauces; Lumaco; Purén; Renaico; Traiguén; Victoria; Valdivia; Corral; Futrono; La Unión; Lago Ranco; Lanco; Los Lagos; Máfil; Mariquina; Paillaco; Panguipulli; Río Bueno; Puerto Montt; Calbuco; Cochamó; Fresia; Frutillar; Los Muermos; Llanquihue; Maullín; Puerto Varas; Castro; Ancud; Chonchi; Curaco de Vélez; Dalcahue; Puqueldón; Queilén; Quellón; Quemchi; Quinchao; Osorno; Puerto Octay; Purranque; Puyehue; Río Negro; San Juan de la Costa; San Pablo; Chaitén; Futaleufú; Hualaihué; Palena; Coihaique; Lago Verde; Aisén; Cisnes; Guaitecas; Cochrane; O Higgins; Tortel; Chile Chico; Río Ibáñez; Punta Arenas; Laguna Blanca; Río Verde; San Gregorio; Cabo de Hornos; Antártica; Porvenir; Primavera; Timaukel; Natales; Torres del Paine; Santiago; Cerrillos; Cerro Navia; Conchalí; El Bosque; Estación Central; Huechuraba; Independencia; La Cisterna; La Florida; La Granja; La Pintana; La Reina; Las Condes; Lo Barnechea; Lo Espejo; Lo Prado; Macul; Maipú; Ñuñoa; Pedro Aguirre Cerda; Peñalolén; Providencia; Pudahuel; Quilicura; Quinta Normal; Recoleta; Renca; San Joaquín; San Miguel; San Ramón; Vitacura; Puente Alto; Pirque; San José de Maipo; Colina; Lampa; Tiltil; San Bernardo; Buin; Calera de Tango; Paine; Melipilla; Alhué; Curacaví; María Pinto; San Pedro; Talagante; El Monte; Isla de Maipo; Padre Hurtado; Peñaflor; Ignorada</t>
+  </si>
+  <si>
+    <t>Arica y Parinacota; Tarapacá; Antofagasta; Atacama; Coquimbo; Valparaíso; Metropolitana de Santiago; O Higgins; Maule; Ñuble; Biobío; La Araucanía; Los Ríos; Los Lagos; Aysén; Magallanes y de la Antártica Chilena</t>
   </si>
 </sst>
 </file>
@@ -617,7 +617,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -625,13 +625,13 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -639,7 +639,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -647,13 +647,13 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -665,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D032E4CE-DA98-4447-B6EF-DADA688AB2F3}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -696,7 +696,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>18</v>
@@ -711,12 +711,12 @@
         <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>19</v>
@@ -731,12 +731,12 @@
         <v>19</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -756,173 +756,173 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
         <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s">
         <v>72</v>
       </c>
-      <c r="C6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" t="s">
-        <v>74</v>
-      </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
         <v>40</v>
-      </c>
-      <c r="D7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
         <v>43</v>
       </c>
-      <c r="E8" t="s">
-        <v>45</v>
-      </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
         <v>47</v>
       </c>
-      <c r="C9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" t="s">
-        <v>49</v>
-      </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
         <v>50</v>
       </c>
-      <c r="C10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" t="s">
         <v>52</v>
-      </c>
-      <c r="E10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" t="s">
         <v>53</v>
-      </c>
-      <c r="E11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
         <v>64</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" t="s">
         <v>65</v>
-      </c>
-      <c r="D12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
         <v>56</v>
-      </c>
-      <c r="D13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -942,7 +942,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -962,7 +962,7 @@
         <v>19</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -982,12 +982,12 @@
         <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>18</v>
@@ -1002,12 +1002,12 @@
         <v>18</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>19</v>
@@ -1022,12 +1022,12 @@
         <v>19</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
@@ -1042,7 +1042,7 @@
         <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1050,7 +1050,7 @@
         <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1058,7 +1058,7 @@
         <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1066,7 +1066,7 @@
         <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1074,7 +1074,7 @@
         <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1082,7 +1082,7 @@
         <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1090,7 +1090,7 @@
         <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1098,7 +1098,7 @@
         <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1106,7 +1106,7 @@
         <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1114,7 +1114,7 @@
         <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1122,7 +1122,7 @@
         <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/options.xlsx
+++ b/options.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\Movil-main(3)\Movil-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959EF7F4-6E24-49B9-8FF9-385A6CC94F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555F7270-7E8E-4F25-86CB-FF701CBF4EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -261,10 +261,10 @@
     <t>desactivado</t>
   </si>
   <si>
-    <t>Arica; Camarones; Putre; General Lagos; Iquique; Camiña; Colchane; Huara; Pica; Pozo Almonte; Alto Hospicio; Antofagasta; Mejillones; Sierra Gorda; Taltal; Calama; Ollagüe; San Pedro de Atacama; Tocopilla; María Elena; Copiapó; Caldera; Tierra Amarilla; Chañaral; Diego de Almagro; Vallenar; Alto del Carmen; Freirina; Huasco; La Serena; Coquimbo; Andacollo; La Higuera; Paiguano; Vicuña; Illapel; Canela; Los Vilos; Salamanca; Ovalle; Combarbalá; Monte Patria; Punitaqui; Río Hurtado; Valparaíso; Casablanca; Concón; Juan Fernández; Puchuncaví; Quilpué; Quintero; Villa Alemana; Viña del Mar; Isla de Pascua; Los Andes; Calle Larga; Rinconada; San Esteban; La Ligua; Cabildo; Papudo; Petorca; Zapallar; Quillota; Calera; Hijuelas; La Cruz; Limache; Nogales; Olmué; San Antonio; Algarrobo; Cartagena; El Quisco; El Tabo; Santo Domingo; San Felipe; Catemu; Llaillay; Panquehue; Putaendo; Santa María; Rancagua; Codegua; Coinco; Coltauco; Doñihue; Graneros; Las Cabras; Machalí; Malloa; Mostazal; Olivar; Peumo; Pichidegua; Quinta de Tilcoco; Rengo; Requínoa; San Vicente; Pichilemu; La Estrella; Litueche; Marchihue; Navidad; Paredones; San Fernando; Chépica; Chimbarongo; Lolol; Nancagua; Palmilla; Peralillo; Placilla; Pumanque; Santa Cruz; Talca; Constitución; Curepto; Empedrado; Maule; Pelarco; Pencahue; Río Claro; San Clemente; San Rafael; Cauquenes; Chanco; Pelluhue; Curicó; Hualañé; Licantén; Molina; Rauco; Romeral; Sagrada Familia; Teno; Vichuquén; Linares; Colbún; Longaví; Parral; Retiro; San Javier; Villa Alegre; Yerbas Buenas; Concepción; Coronel; Chiguayante; Florida; Hualqui; Lota; Penco; San Pedro de la Paz; Santa Juana; Talcahuano; Tomé; Hualpén; Lebu; Arauco; Cañete; Contulmo; Curanilahue; Los Álamos; Tirúa; Los Ángeles; Antuco; Cabrero; Laja; Mulchén; Nacimiento; Negrete; Quilaco; Quilleco; San Rosendo; Santa Bárbara; Tucapel; Yumbel; Alto Biobío; Chillán; Bulnes; Cobquecura; Coelemu; Coihueco; Chillán Viejo; El Carmen; Ninhue; Ñiquén; Pemuco; Pinto; Portezuelo; Quillón; Quirihue; Ránquil; San Carlos; San Fabián; San Ignacio; San Nicolás; Treguaco; Yungay; Temuco; Carahue; Cunco; Curarrehue; Freire; Galvarino; Gorbea; Lautaro; Loncoche; Melipeuco; Nueva Imperial; Padre Las Casas; Perquenco; Pitrufquén; Pucón; Saavedra; Teodoro Schmidt; Toltén; Vilcún; Villarrica; Cholchol; Angol; Collipulli; Curacautín; Ercilla; Lonquimay; Los Sauces; Lumaco; Purén; Renaico; Traiguén; Victoria; Valdivia; Corral; Futrono; La Unión; Lago Ranco; Lanco; Los Lagos; Máfil; Mariquina; Paillaco; Panguipulli; Río Bueno; Puerto Montt; Calbuco; Cochamó; Fresia; Frutillar; Los Muermos; Llanquihue; Maullín; Puerto Varas; Castro; Ancud; Chonchi; Curaco de Vélez; Dalcahue; Puqueldón; Queilén; Quellón; Quemchi; Quinchao; Osorno; Puerto Octay; Purranque; Puyehue; Río Negro; San Juan de la Costa; San Pablo; Chaitén; Futaleufú; Hualaihué; Palena; Coihaique; Lago Verde; Aisén; Cisnes; Guaitecas; Cochrane; O Higgins; Tortel; Chile Chico; Río Ibáñez; Punta Arenas; Laguna Blanca; Río Verde; San Gregorio; Cabo de Hornos; Antártica; Porvenir; Primavera; Timaukel; Natales; Torres del Paine; Santiago; Cerrillos; Cerro Navia; Conchalí; El Bosque; Estación Central; Huechuraba; Independencia; La Cisterna; La Florida; La Granja; La Pintana; La Reina; Las Condes; Lo Barnechea; Lo Espejo; Lo Prado; Macul; Maipú; Ñuñoa; Pedro Aguirre Cerda; Peñalolén; Providencia; Pudahuel; Quilicura; Quinta Normal; Recoleta; Renca; San Joaquín; San Miguel; San Ramón; Vitacura; Puente Alto; Pirque; San José de Maipo; Colina; Lampa; Tiltil; San Bernardo; Buin; Calera de Tango; Paine; Melipilla; Alhué; Curacaví; María Pinto; San Pedro; Talagante; El Monte; Isla de Maipo; Padre Hurtado; Peñaflor; Ignorada</t>
-  </si>
-  <si>
-    <t>Arica y Parinacota; Tarapacá; Antofagasta; Atacama; Coquimbo; Valparaíso; Metropolitana de Santiago; O Higgins; Maule; Ñuble; Biobío; La Araucanía; Los Ríos; Los Lagos; Aysén; Magallanes y de la Antártica Chilena</t>
+    <t>Arica y Parinacota; Tarapacá; Antofagasta; Atacama; Coquimbo; Valparaíso; Metropolitana de Santiago; OHiggins; Maule; Ñuble; Biobío; La Araucanía; Los Ríos; Los Lagos; Aysén; Magallanes y de la Antártica Chilena</t>
+  </si>
+  <si>
+    <t>Arica; Camarones; Putre; General Lagos; Iquique; Camiña; Colchane; Huara; Pica; Pozo Almonte; Alto Hospicio; Antofagasta; Mejillones; Sierra Gorda; Taltal; Calama; Ollagüe; San Pedro de Atacama; Tocopilla; María Elena; Copiapó; Caldera; Tierra Amarilla; Chañaral; Diego de Almagro; Vallenar; Alto del Carmen; Freirina; Huasco; La Serena; Coquimbo; Andacollo; La Higuera; Paiguano; Vicuña; Illapel; Canela; Los Vilos; Salamanca; Ovalle; Combarbalá; Monte Patria; Punitaqui; Río Hurtado; Valparaíso; Casablanca; Concón; Juan Fernández; Puchuncaví; Quilpué; Quintero; Villa Alemana; Viña del Mar; Isla de Pascua; Los Andes; Calle Larga; Rinconada; San Esteban; La Ligua; Cabildo; Papudo; Petorca; Zapallar; Quillota; Calera; Hijuelas; La Cruz; Limache; Nogales; Olmué; San Antonio; Algarrobo; Cartagena; El Quisco; El Tabo; Santo Domingo; San Felipe; Catemu; Llaillay; Panquehue; Putaendo; Santa María; Rancagua; Codegua; Coinco; Coltauco; Doñihue; Graneros; Las Cabras; Machalí; Malloa; Mostazal; Olivar; Peumo; Pichidegua; Quinta de Tilcoco; Rengo; Requínoa; San Vicente; Pichilemu; La Estrella; Litueche; Marchihue; Navidad; Paredones; San Fernando; Chépica; Chimbarongo; Lolol; Nancagua; Palmilla; Peralillo; Placilla; Pumanque; Santa Cruz; Talca; Constitución; Curepto; Empedrado; Maule; Pelarco; Pencahue; Río Claro; San Clemente; San Rafael; Cauquenes; Chanco; Pelluhue; Curicó; Hualañé; Licantén; Molina; Rauco; Romeral; Sagrada Familia; Teno; Vichuquén; Linares; Colbún; Longaví; Parral; Retiro; San Javier; Villa Alegre; Yerbas Buenas; Concepción; Coronel; Chiguayante; Florida; Hualqui; Lota; Penco; San Pedro de la Paz; Santa Juana; Talcahuano; Tomé; Hualpén; Lebu; Arauco; Cañete; Contulmo; Curanilahue; Los Álamos; Tirúa; Los Ángeles; Antuco; Cabrero; Laja; Mulchén; Nacimiento; Negrete; Quilaco; Quilleco; San Rosendo; Santa Bárbara; Tucapel; Yumbel; Alto Biobío; Chillán; Bulnes; Cobquecura; Coelemu; Coihueco; Chillán Viejo; El Carmen; Ninhue; Ñiquén; Pemuco; Pinto; Portezuelo; Quillón; Quirihue; Ránquil; San Carlos; San Fabián; San Ignacio; San Nicolás; Treguaco; Yungay; Temuco; Carahue; Cunco; Curarrehue; Freire; Galvarino; Gorbea; Lautaro; Loncoche; Melipeuco; Nueva Imperial; Padre Las Casas; Perquenco; Pitrufquén; Pucón; Saavedra; Teodoro Schmidt; Toltén; Vilcún; Villarrica; Cholchol; Angol; Collipulli; Curacautín; Ercilla; Lonquimay; Los Sauces; Lumaco; Purén; Renaico; Traiguén; Victoria; Valdivia; Corral; Futrono; La Unión; Lago Ranco; Lanco; Los Lagos; Máfil; Mariquina; Paillaco; Panguipulli; Río Bueno; Puerto Montt; Calbuco; Cochamó; Fresia; Frutillar; Los Muermos; Llanquihue; Maullín; Puerto Varas; Castro; Ancud; Chonchi; Curaco de Vélez; Dalcahue; Puqueldón; Queilén; Quellón; Quemchi; Quinchao; Osorno; Puerto Octay; Purranque; Puyehue; Río Negro; San Juan de la Costa; San Pablo; Chaitén; Futaleufú; Hualaihué; Palena; Coihaique; Lago Verde; Aisén; Cisnes; Guaitecas; Cochrane; OHiggins; Tortel; Chile Chico; Río Ibáñez; Punta Arenas; Laguna Blanca; Río Verde; San Gregorio; Cabo de Hornos; Antártica; Porvenir; Primavera; Timaukel; Natales; Torres del Paine; Santiago; Cerrillos; Cerro Navia; Conchalí; El Bosque; Estación Central; Huechuraba; Independencia; La Cisterna; La Florida; La Granja; La Pintana; La Reina; Las Condes; Lo Barnechea; Lo Espejo; Lo Prado; Macul; Maipú; Ñuñoa; Pedro Aguirre Cerda; Peñalolén; Providencia; Pudahuel; Quilicura; Quinta Normal; Recoleta; Renca; San Joaquín; San Miguel; San Ramón; Vitacura; Puente Alto; Pirque; San José de Maipo; Colina; Lampa; Tiltil; San Bernardo; Buin; Calera de Tango; Paine; Melipilla; Alhué; Curacaví; María Pinto; San Pedro; Talagante; El Monte; Isla de Maipo; Padre Hurtado; Peñaflor; Ignorada</t>
   </si>
 </sst>
 </file>
@@ -665,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D032E4CE-DA98-4447-B6EF-DADA688AB2F3}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -711,7 +711,7 @@
         <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -731,7 +731,7 @@
         <v>19</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -942,7 +942,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -962,7 +962,7 @@
         <v>19</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1002,7 +1002,7 @@
         <v>18</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1022,7 +1022,7 @@
         <v>19</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:7">

--- a/options.xlsx
+++ b/options.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\Movil-main(3)\Movil-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert.millan.o\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555F7270-7E8E-4F25-86CB-FF701CBF4EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E948462-2D41-42ED-A571-7DC031AC7135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="options" sheetId="1" r:id="rId1"/>
@@ -81,9 +81,6 @@
     <t>consulta</t>
   </si>
   <si>
-    <t>Conectado sin SIM; Demora entrega de SIM; Error entrega de SIM; Navegación lenta; No emite SMS; No envía USSD; No ingresan llamadas; No emite llamadas; No navega; No recibe SMS; No recibe SMS de validación; Problema número específico; Robo/Extravío SIM; SIM defectuosa; Sin señal voz; Voz entrecortada; SMS validación; Activación SIM; Liberación de líneas Port out (Escalar con líder); Baja móvil/Línea nueva; Baja móvil/Portabilidad; Línea nueva no conecta; No permite reiniciar portabilidad BOM; Consumo sin información; Plan no coincide en consumo; Error activación bolsas; Estado terminado CAC; Estado preactivo CAC; Estado bloqueado CAC; Número no creado en CAC; Saldo no recargado en CAC; Consumo no coincide en CAC; Error de visualización CAC; Ciclo facturación no corresponde CAC; Estado saldo desactivado CAC; Estado saldo agotado CAC; Simcard física no corresponde CAC; Modificación de línea principal; Línea impago; No permite reiniciar portabilidad; Error reconexión móvil; Técnico hogar</t>
-  </si>
-  <si>
     <t>Ingresa la consulta del cliente</t>
   </si>
   <si>
@@ -237,12 +234,6 @@
     <t>I+D TECNICO; BO; SOPORTE TECNICO MOVIL; NO SE ESCALO; N/A</t>
   </si>
   <si>
-    <t>Activación / habilitación de servicio; Anulación portabilidad; Actualización de datos; Bloqueo/Robo/Pérdida SIM; Consulta ciclo de facturación; Consulta de reclamos; Consulta horario-dirección sucursales; Solicitud de baja Móvil; Consulta medios de pago; Consulta por baja; Consulta por boletas emitidas; Envío de boleta; Consulta por deuda pendiente; Consulta por doble cobro; Consulta por nota de crédito; Consulta por pagos realizados; Consulta por consumo; Consulta por plan contratado; Consulta por proporcional; Solicitud cambio de número; Solicitud cambio titularidad; Cambio de titularidad multilíneas; Solicitud cambio de plan; Cambio de plan multilíneas; Sucursal virtual; Reconexión antes 36; Modificación de oferta móvil (Gestión Comercial); Pagos no reflejados (Gestión Comercial); Aplicar saldo a favor (Gestión Comercial); Dcto. interrupción servicio móvil (Requerimiento); Registro de llamadas móvil (Requerimiento); Consulta portabilidad; Conectado sin SIM; Demora entrega de SIM</t>
-  </si>
-  <si>
-    <t>Conectado sin SIM; Demora entrega de SIM; Error entrega de SIM; Navegación Lenta; No emite SMS; No envía USSD; No ingresan llamadas; No emite llamadas; No navega; No recibe SMS; No recibe SMS de Validación; Problema número específico; Robo/Extravío SIM; SIM defectuosa; Sin Señal Voz; Voz entrecortada; SMS valdiacion; Activacion SIM; Liberación de lineas Port out ( ESCALAR CON LIDER ); Baja móvil/Linea Nueva; Baja móvil/Portabilidad; Línea nueva no conecta; No permite reiniciar portabilidad BOM; Consumo Sin Informacion; Plan no coincide en consumo; Error activación bolsas; Estado terminado CAC; Estado PreActivo CAC; Estado Bloqueado CAC; Número no creado en CAC; Saldo no recargado en CAC; Consumo no coinciden CAC; Error de Visualización CAC; Ciclo facturación no corresponde CAC; Estado Saldo desactivado CAC; Estado Saldo agotado CAC; Simcard física no corresponde CAC; Modificación de línea Principal; Línea Impago; No permite reiniciar portabilidad; Error Reconexión Móvil; Tecnico hogar; Solicitud de baja Móvil (CONTENCION); Consulta por baja (CONTENCION); Reconexión pdte (CONTENCION / 36-90 Dias); Reconexión pdte (VENTAS / 91 EN ADELANTE); Ingreso de reclamos (RECLAMOS); Consulta de reclamos (RECLAMOS); Consulta ciclo de facturación (COMERCIAL HOGAR); Consulta por boletas emitidas (COMERCIAL HOGAR); Envío de boleta (COMERCIAL HOGAR); Consulta por deuda pendiente (COMERCIAL HOGAR); Consulta por doble cobro (COMERCIAL HOGAR); Consulta por nota de crédito (COMERCIAL HOGAR); Consulta por pagos realizados (COMERCIAL HOGAR); Consulta por plan contratado (COMERCIAL HOGAR); Consulta por proporcional (COMERCIAL HOGAR); Consulta por servicio suspendido (COMERCIAL HOGAR); Dcto. falla masiva no aplicado (COMERCIAL HOGAR); Activación / habilitación de servicio (TECNICO HOGAR); Falla técnica / Llamada transferida (TECNICO HOGAR); Consulta técnica (TECNICO HOGAR); TRANSFERENCIA (VENTAS); TRANSFERENCIA (EMPRENDEDOR); APN (TECNICO MOVIL); SIN SEÑAL (TECNICO MOVIL); SMS Validación (TECNICO MOVIL); TRANSFERENCIA (COMERCIAL HOGAR).</t>
-  </si>
-  <si>
     <t>escalas</t>
   </si>
   <si>
@@ -265,6 +256,15 @@
   </si>
   <si>
     <t>Arica; Camarones; Putre; General Lagos; Iquique; Camiña; Colchane; Huara; Pica; Pozo Almonte; Alto Hospicio; Antofagasta; Mejillones; Sierra Gorda; Taltal; Calama; Ollagüe; San Pedro de Atacama; Tocopilla; María Elena; Copiapó; Caldera; Tierra Amarilla; Chañaral; Diego de Almagro; Vallenar; Alto del Carmen; Freirina; Huasco; La Serena; Coquimbo; Andacollo; La Higuera; Paiguano; Vicuña; Illapel; Canela; Los Vilos; Salamanca; Ovalle; Combarbalá; Monte Patria; Punitaqui; Río Hurtado; Valparaíso; Casablanca; Concón; Juan Fernández; Puchuncaví; Quilpué; Quintero; Villa Alemana; Viña del Mar; Isla de Pascua; Los Andes; Calle Larga; Rinconada; San Esteban; La Ligua; Cabildo; Papudo; Petorca; Zapallar; Quillota; Calera; Hijuelas; La Cruz; Limache; Nogales; Olmué; San Antonio; Algarrobo; Cartagena; El Quisco; El Tabo; Santo Domingo; San Felipe; Catemu; Llaillay; Panquehue; Putaendo; Santa María; Rancagua; Codegua; Coinco; Coltauco; Doñihue; Graneros; Las Cabras; Machalí; Malloa; Mostazal; Olivar; Peumo; Pichidegua; Quinta de Tilcoco; Rengo; Requínoa; San Vicente; Pichilemu; La Estrella; Litueche; Marchihue; Navidad; Paredones; San Fernando; Chépica; Chimbarongo; Lolol; Nancagua; Palmilla; Peralillo; Placilla; Pumanque; Santa Cruz; Talca; Constitución; Curepto; Empedrado; Maule; Pelarco; Pencahue; Río Claro; San Clemente; San Rafael; Cauquenes; Chanco; Pelluhue; Curicó; Hualañé; Licantén; Molina; Rauco; Romeral; Sagrada Familia; Teno; Vichuquén; Linares; Colbún; Longaví; Parral; Retiro; San Javier; Villa Alegre; Yerbas Buenas; Concepción; Coronel; Chiguayante; Florida; Hualqui; Lota; Penco; San Pedro de la Paz; Santa Juana; Talcahuano; Tomé; Hualpén; Lebu; Arauco; Cañete; Contulmo; Curanilahue; Los Álamos; Tirúa; Los Ángeles; Antuco; Cabrero; Laja; Mulchén; Nacimiento; Negrete; Quilaco; Quilleco; San Rosendo; Santa Bárbara; Tucapel; Yumbel; Alto Biobío; Chillán; Bulnes; Cobquecura; Coelemu; Coihueco; Chillán Viejo; El Carmen; Ninhue; Ñiquén; Pemuco; Pinto; Portezuelo; Quillón; Quirihue; Ránquil; San Carlos; San Fabián; San Ignacio; San Nicolás; Treguaco; Yungay; Temuco; Carahue; Cunco; Curarrehue; Freire; Galvarino; Gorbea; Lautaro; Loncoche; Melipeuco; Nueva Imperial; Padre Las Casas; Perquenco; Pitrufquén; Pucón; Saavedra; Teodoro Schmidt; Toltén; Vilcún; Villarrica; Cholchol; Angol; Collipulli; Curacautín; Ercilla; Lonquimay; Los Sauces; Lumaco; Purén; Renaico; Traiguén; Victoria; Valdivia; Corral; Futrono; La Unión; Lago Ranco; Lanco; Los Lagos; Máfil; Mariquina; Paillaco; Panguipulli; Río Bueno; Puerto Montt; Calbuco; Cochamó; Fresia; Frutillar; Los Muermos; Llanquihue; Maullín; Puerto Varas; Castro; Ancud; Chonchi; Curaco de Vélez; Dalcahue; Puqueldón; Queilén; Quellón; Quemchi; Quinchao; Osorno; Puerto Octay; Purranque; Puyehue; Río Negro; San Juan de la Costa; San Pablo; Chaitén; Futaleufú; Hualaihué; Palena; Coihaique; Lago Verde; Aisén; Cisnes; Guaitecas; Cochrane; OHiggins; Tortel; Chile Chico; Río Ibáñez; Punta Arenas; Laguna Blanca; Río Verde; San Gregorio; Cabo de Hornos; Antártica; Porvenir; Primavera; Timaukel; Natales; Torres del Paine; Santiago; Cerrillos; Cerro Navia; Conchalí; El Bosque; Estación Central; Huechuraba; Independencia; La Cisterna; La Florida; La Granja; La Pintana; La Reina; Las Condes; Lo Barnechea; Lo Espejo; Lo Prado; Macul; Maipú; Ñuñoa; Pedro Aguirre Cerda; Peñalolén; Providencia; Pudahuel; Quilicura; Quinta Normal; Recoleta; Renca; San Joaquín; San Miguel; San Ramón; Vitacura; Puente Alto; Pirque; San José de Maipo; Colina; Lampa; Tiltil; San Bernardo; Buin; Calera de Tango; Paine; Melipilla; Alhué; Curacaví; María Pinto; San Pedro; Talagante; El Monte; Isla de Maipo; Padre Hurtado; Peñaflor; Ignorada</t>
+  </si>
+  <si>
+    <t>Activación / habilitación de servicio; Anulación portabilidad; Actualización de datos; Bloqueo/Robo/Pérdida SIM; Consulta ciclo de facturación; Consulta de reclamos; Consulta horario-dirección sucursales; Solicitud de baja Móvil; Consulta medios de pago; Consulta por baja; Consulta por boletas emitidas; Envío de boleta; Consulta por deuda pendiente; Consulta por doble cobro; Consulta por nota de crédito; Consulta por pagos realizados; Consulta por consumo; Consulta por plan contratado; Consulta por proporcional; Solicitud cambio de número; Solicitud cambio titularidad; Cambio de titularidad multilíneas; Solicitud cambio de plan; Cambio de plan multilíneas; Sucursal virtual; Reconexión antes 36; Modificación de oferta móvil (Gestión Comercial); Pagos no reflejados (Gestión Comercial); Aplicar saldo a favor (Gestión Comercial); Dcto. interrupción servicio móvil (Requerimiento); Registro de llamadas móvil (Requerimiento); Consulta portabilidad; Conectado sin SIM; Demora entrega de SIM; INCENDIO</t>
+  </si>
+  <si>
+    <t>Conectado sin SIM; Demora entrega de SIM; Error entrega de SIM; Navegación Lenta; No emite SMS; No envía USSD; No ingresan llamadas; No emite llamadas; No navega; No recibe SMS; No recibe SMS de Validación; Problema número específico; Robo/Extravío SIM; SIM defectuosa; Sin Señal Voz; Voz entrecortada; SMS valdiacion; Activacion SIM; Liberación de lineas Port out ( ESCALAR CON LIDER ); Baja móvil/Linea Nueva; Baja móvil/Portabilidad; Línea nueva no conecta; No permite reiniciar portabilidad BOM; Consumo Sin Informacion; Plan no coincide en consumo; Error activación bolsas; Estado terminado CAC; Estado PreActivo CAC; Estado Bloqueado CAC; Número no creado en CAC; Saldo no recargado en CAC; Consumo no coinciden CAC; Error de Visualización CAC; Ciclo facturación no corresponde CAC; Estado Saldo desactivado CAC; Estado Saldo agotado CAC; Simcard física no corresponde CAC; Modificación de línea Principal; Línea Impago; No permite reiniciar portabilidad; Error Reconexión Móvil; Tecnico hogar; Solicitud de baja Móvil (CONTENCION); Consulta por baja (CONTENCION); Reconexión pdte (CONTENCION / 36-90 Dias); Reconexión pdte (VENTAS / 91 EN ADELANTE); Ingreso de reclamos (RECLAMOS); Consulta de reclamos (RECLAMOS); Consulta ciclo de facturación (COMERCIAL HOGAR); Consulta por boletas emitidas (COMERCIAL HOGAR); Envío de boleta (COMERCIAL HOGAR); Consulta por deuda pendiente (COMERCIAL HOGAR); Consulta por doble cobro (COMERCIAL HOGAR); Consulta por nota de crédito (COMERCIAL HOGAR); Consulta por pagos realizados (COMERCIAL HOGAR); Consulta por plan contratado (COMERCIAL HOGAR); Consulta por proporcional (COMERCIAL HOGAR); Consulta por servicio suspendido (COMERCIAL HOGAR); Dcto. falla masiva no aplicado (COMERCIAL HOGAR); Activación / habilitación de servicio (TECNICO HOGAR); Falla técnica / Llamada transferida (TECNICO HOGAR); Consulta técnica (TECNICO HOGAR); TRANSFERENCIA (VENTAS); TRANSFERENCIA (EMPRENDEDOR); APN (TECNICO MOVIL); SIN SEÑAL (TECNICO MOVIL); SMS Validación (TECNICO MOVIL); TRANSFERENCIA (COMERCIAL HOGAR); INCENDIO</t>
+  </si>
+  <si>
+    <t>Conectado sin SIM; Demora entrega de SIM; Error entrega de SIM; Navegación lenta; No emite SMS; No envía USSD; No ingresan llamadas; No emite llamadas; No navega; No recibe SMS; No recibe SMS de validación; Problema número específico; Robo/Extravío SIM; SIM defectuosa; Sin señal voz; Voz entrecortada; SMS validación; Activación SIM; Liberación de líneas Port out (Escalar con líder); Baja móvil/Línea nueva; Baja móvil/Portabilidad; Línea nueva no conecta; No permite reiniciar portabilidad BOM; Consumo sin información; Plan no coincide en consumo; Error activación bolsas; Estado terminado CAC; Estado preactivo CAC; Estado bloqueado CAC; Número no creado en CAC; Saldo no recargado en CAC; Consumo no coincide en CAC; Error de visualización CAC; Ciclo facturación no corresponde CAC; Estado saldo desactivado CAC; Estado saldo agotado CAC; Simcard física no corresponde CAC; Modificación de línea principal; Línea impago; No permite reiniciar portabilidad; Error reconexión móvil; Técnico hogar; INCENDIO</t>
   </si>
 </sst>
 </file>
@@ -617,7 +617,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -625,13 +625,13 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -639,7 +639,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -647,13 +647,13 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
         <v>58</v>
       </c>
-      <c r="B5" t="s">
-        <v>59</v>
-      </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -666,7 +666,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -696,47 +696,47 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -745,184 +745,184 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>33</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>34</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
         <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>38</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
         <v>39</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" t="s">
-        <v>44</v>
-      </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
         <v>45</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>46</v>
       </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
         <v>48</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>49</v>
       </c>
-      <c r="D10" t="s">
-        <v>50</v>
-      </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
         <v>62</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" t="s">
         <v>64</v>
-      </c>
-      <c r="E12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
         <v>54</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>55</v>
-      </c>
-      <c r="E13" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -930,19 +930,19 @@
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -950,19 +950,19 @@
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -976,58 +976,58 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s">
         <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
@@ -1036,13 +1036,13 @@
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s">
         <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1050,7 +1050,7 @@
         <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1058,7 +1058,7 @@
         <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1066,7 +1066,7 @@
         <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1074,7 +1074,7 @@
         <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1082,7 +1082,7 @@
         <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1090,7 +1090,7 @@
         <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1098,7 +1098,7 @@
         <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1106,7 +1106,7 @@
         <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1114,7 +1114,7 @@
         <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1122,7 +1122,7 @@
         <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/options.xlsx
+++ b/options.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert.millan.o\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E948462-2D41-42ED-A571-7DC031AC7135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1CF612-7EE4-4FCB-B0D7-2106CBE8D41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="options" sheetId="1" r:id="rId1"/>
@@ -192,9 +192,6 @@
     <t>¿Se escala el caso?</t>
   </si>
   <si>
-    <t>SIM AZUL; APN; PRUEBA CRUZADA; SMS; SIM AZUL, APN; SIM AZUL, PRUEBA CRUZADA; SIM AZUL, SMS; APN, PRUEBA CRUZADA; APN, SMS; PRUEBA CRUZADA, SMS; SIM AZUL, APN, PRUEBA CRUZADA; SIM AZUL, APN, SMS; SIM AZUL, PRUEBA CRUZADA, SMS; APN, PRUEBA CRUZADA, SMS</t>
-  </si>
-  <si>
     <t>SI; NO</t>
   </si>
   <si>
@@ -265,6 +262,9 @@
   </si>
   <si>
     <t>Conectado sin SIM; Demora entrega de SIM; Error entrega de SIM; Navegación lenta; No emite SMS; No envía USSD; No ingresan llamadas; No emite llamadas; No navega; No recibe SMS; No recibe SMS de validación; Problema número específico; Robo/Extravío SIM; SIM defectuosa; Sin señal voz; Voz entrecortada; SMS validación; Activación SIM; Liberación de líneas Port out (Escalar con líder); Baja móvil/Línea nueva; Baja móvil/Portabilidad; Línea nueva no conecta; No permite reiniciar portabilidad BOM; Consumo sin información; Plan no coincide en consumo; Error activación bolsas; Estado terminado CAC; Estado preactivo CAC; Estado bloqueado CAC; Número no creado en CAC; Saldo no recargado en CAC; Consumo no coincide en CAC; Error de visualización CAC; Ciclo facturación no corresponde CAC; Estado saldo desactivado CAC; Estado saldo agotado CAC; Simcard física no corresponde CAC; Modificación de línea principal; Línea impago; No permite reiniciar portabilidad; Error reconexión móvil; Técnico hogar; INCENDIO</t>
+  </si>
+  <si>
+    <t>MULTI IMSI; APN; PRUEBA CRUZADA; SMS; MULTI IMSI, APN; MULTI IMSI, PRUEBA CRUZADA; MULTI IMSI, SMS; APN, PRUEBA CRUZADA; APN, SMS; PRUEBA CRUZADA, SMS; MULTI IMSI, APN, PRUEBA CRUZADA; MULTI IMSI, APN, SMS; MULTI IMSI, PRUEBA CRUZADA, SMS; APN, PRUEBA CRUZADA, SMS</t>
   </si>
 </sst>
 </file>
@@ -617,7 +617,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -628,7 +628,7 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
         <v>31</v>
@@ -639,7 +639,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -647,13 +647,13 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
         <v>57</v>
       </c>
-      <c r="B5" t="s">
-        <v>58</v>
-      </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -666,7 +666,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -711,7 +711,7 @@
         <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -731,7 +731,7 @@
         <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -751,7 +751,7 @@
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -776,24 +776,24 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
         <v>67</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>68</v>
       </c>
-      <c r="D6" t="s">
-        <v>69</v>
-      </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
@@ -865,27 +865,27 @@
         <v>47</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
         <v>65</v>
-      </c>
-      <c r="C11" t="s">
-        <v>66</v>
       </c>
       <c r="D11" t="s">
         <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -893,19 +893,19 @@
         <v>31</v>
       </c>
       <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
         <v>61</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>62</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" t="s">
         <v>63</v>
-      </c>
-      <c r="E12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -913,16 +913,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
         <v>53</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>54</v>
-      </c>
-      <c r="E13" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -942,7 +942,7 @@
         <v>17</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -962,7 +962,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -982,12 +982,12 @@
         <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>17</v>
@@ -1002,12 +1002,12 @@
         <v>17</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>18</v>
@@ -1022,12 +1022,12 @@
         <v>18</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
@@ -1042,7 +1042,7 @@
         <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:3">
